--- a/bin/tests/data/spreadsheets/test_SGA_updatedClassDb_oneSampl_Kraken2.xlsx
+++ b/bin/tests/data/spreadsheets/test_SGA_updatedClassDb_oneSampl_Kraken2.xlsx
@@ -115,7 +115,7 @@
     <t xml:space="preserve">meconium</t>
   </si>
   <si>
-    <t xml:space="preserve">Kraken2</t>
+    <t xml:space="preserve">Kraken 2</t>
   </si>
   <si>
     <t xml:space="preserve">MTX</t>
@@ -291,7 +291,7 @@
   <dimension ref="A1:AB754"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z3" activeCellId="0" sqref="Z3"/>
+      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
